--- a/config_Release/act_xrxsfl_config.xlsx
+++ b/config_Release/act_xrxsfl_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,21 +80,6 @@
     <t>任意消除1次</t>
   </si>
   <si>
-    <t>累计消除10个苹果</t>
-  </si>
-  <si>
-    <t>累计消除20个西瓜</t>
-  </si>
-  <si>
-    <t>累计消除50个西瓜</t>
-  </si>
-  <si>
-    <t>累计消除30个铃铛</t>
-  </si>
-  <si>
-    <t>累计消除80个铃铛</t>
-  </si>
-  <si>
     <t>award_img|奖励图片</t>
   </si>
   <si>
@@ -277,6 +262,22 @@
   <si>
     <t>16,9,10,11,12,13,14,15</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消除10个独眼怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消除20个绿皮怪</t>
+  </si>
+  <si>
+    <t>累计消除50个绿皮怪</t>
+  </si>
+  <si>
+    <t>累计消除30个小黄怪</t>
+  </si>
+  <si>
+    <t>累计消除80个小黄怪</t>
   </si>
 </sst>
 </file>
@@ -682,7 +683,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -733,10 +734,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F2" s="5">
         <v>43</v>
@@ -754,16 +755,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F3" s="5">
         <v>44</v>
@@ -1133,7 +1134,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D13"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1175,7 +1176,7 @@
         <v>1000352</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
@@ -1343,7 +1344,7 @@
         <v>1000359</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
@@ -1367,7 +1368,7 @@
         <v>1000360</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>12</v>
@@ -1391,7 +1392,7 @@
         <v>1000361</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>12</v>
@@ -1415,7 +1416,7 @@
         <v>1000362</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>12</v>
@@ -1439,7 +1440,7 @@
         <v>1000363</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>12</v>
@@ -1730,7 +1731,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1739,7 +1740,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1759,19 +1760,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1787,14 +1788,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F2" s="3">
         <v>82</v>
@@ -1816,13 +1817,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
@@ -1842,13 +1843,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F4" s="3">
         <v>86</v>
@@ -1870,14 +1871,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
@@ -1897,14 +1898,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F6" s="3">
         <v>83</v>
@@ -1926,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
@@ -1952,13 +1953,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1979,10 +1980,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="3"/>
@@ -2004,14 +2005,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F10" s="3">
         <v>84</v>
@@ -2033,13 +2034,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2060,13 +2061,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F12" s="3">
         <v>86</v>
@@ -2088,14 +2089,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
@@ -2115,14 +2116,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F14" s="3">
         <v>85</v>
@@ -2144,13 +2145,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2171,13 +2172,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2198,10 +2199,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="3"/>
